--- a/倾向得分匹配_平衡性检验.xlsx
+++ b/倾向得分匹配_平衡性检验.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,10 +490,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.56552729047048</v>
+        <v>0.3365521852103142</v>
       </c>
       <c r="D2" t="n">
-        <v>106.6845278249979</v>
+        <v>99.1231071854279</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -502,10 +502,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7213193387728233</v>
+        <v>0.09462444644427603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4707664244531365</v>
+        <v>0.9246191308781114</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.932260845261042</v>
+        <v>3.271726598574773</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7043045233426</v>
+        <v>90.90949586190925</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -535,10 +535,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.386746165115377</v>
+        <v>0.9198731486877424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1656169933572546</v>
+        <v>0.3577092649888407</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>27.60844400112265</v>
+        <v>20.489872325343</v>
       </c>
       <c r="D4" t="n">
-        <v>38.92407659469929</v>
+        <v>54.67191585747635</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -568,10 +568,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>7.7623436887254</v>
+        <v>5.76089804702315</v>
       </c>
       <c r="H4" t="n">
-        <v>1.117583179064564e-14</v>
+        <v>9.170212484141563e-09</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -582,64 +582,97 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ln_fdi</t>
+          <t>tertiary_share_sq</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.66295094300895</v>
+        <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.843240183169871</v>
+        <v>21.53136706643642</v>
       </c>
       <c r="D5" t="n">
-        <v>117.8895048195899</v>
+        <v>52.79374569295835</v>
       </c>
       <c r="E5" t="n">
-        <v>9.656641617854888</v>
+        <v>13.56053058748441</v>
       </c>
       <c r="F5" t="n">
-        <v>8.645295030347428e-22</v>
+        <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.642875583850032</v>
+        <v>6.053722957041203</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1005081688309645</v>
+        <v>1.581736069367004e-09</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>需检查</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ln_fdi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>32.66295094300895</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.979673132347963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109.1224860164869</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.656641617854888</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.645295030347428e-22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.8377598872433861</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4022289290092775</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ln_road_area</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>-22.93534586918614</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.108415522827745</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-69.00672192444253</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C7" t="n">
+        <v>-0.7723781488215303</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-96.63236755518378</v>
+      </c>
+      <c r="E7" t="n">
         <v>-6.731473306095445</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>1.957702669230089e-11</v>
       </c>
-      <c r="G6" t="n">
-        <v>-1.998590154816979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.04573824220434173</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G7" t="n">
+        <v>-0.2171605414839901</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8280972535816009</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/倾向得分匹配_平衡性检验.xlsx
+++ b/倾向得分匹配_平衡性检验.xlsx
@@ -490,10 +490,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3365521852103142</v>
+        <v>-5.062293621080931</v>
       </c>
       <c r="D2" t="n">
-        <v>99.1231071854279</v>
+        <v>113.1898977236058</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -502,10 +502,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09462444644427603</v>
+        <v>-1.384053665424951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9246191308781114</v>
+        <v>0.1664453888926849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>3.271726598574773</v>
+        <v>-1.676422489111038</v>
       </c>
       <c r="D3" t="n">
-        <v>90.90949586190925</v>
+        <v>104.6579459240546</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -535,10 +535,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9198731486877424</v>
+        <v>-0.4583413892060091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3577092649888407</v>
+        <v>0.6467405249150434</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>20.489872325343</v>
+        <v>16.21594552480293</v>
       </c>
       <c r="D4" t="n">
-        <v>54.67191585747635</v>
+        <v>64.12677777939534</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -568,10 +568,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>5.76089804702315</v>
+        <v>4.433511866730184</v>
       </c>
       <c r="H4" t="n">
-        <v>9.170212484141563e-09</v>
+        <v>9.60515358271766e-06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>21.53136706643642</v>
+        <v>15.99776471493287</v>
       </c>
       <c r="D5" t="n">
-        <v>52.79374569295835</v>
+        <v>64.92584297378158</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -601,10 +601,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>6.053722957041203</v>
+        <v>4.373860259725699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.581736069367004e-09</v>
+        <v>1.262426739122109e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.979673132347963</v>
+        <v>-6.273725120801471</v>
       </c>
       <c r="D6" t="n">
-        <v>109.1224860164869</v>
+        <v>119.2074657667888</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -634,10 +634,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8377598872433861</v>
+        <v>-1.715264443207027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4022289290092775</v>
+        <v>0.08640043158271631</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7723781488215303</v>
+        <v>0.3968688470246407</v>
       </c>
       <c r="D7" t="n">
-        <v>-96.63236755518378</v>
+        <v>-101.7303809120134</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -667,10 +667,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2171605414839901</v>
+        <v>0.1085057137203632</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8280972535816009</v>
+        <v>0.9136018339016092</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>

--- a/倾向得分匹配_平衡性检验.xlsx
+++ b/倾向得分匹配_平衡性检验.xlsx
@@ -490,10 +490,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.062293621080931</v>
+        <v>-6.016051223453828</v>
       </c>
       <c r="D2" t="n">
-        <v>113.1898977236058</v>
+        <v>115.6749304321044</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -502,10 +502,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.384053665424951</v>
+        <v>-1.616516434106535</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664453888926849</v>
+        <v>0.1060919970647919</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.676422489111038</v>
+        <v>-2.70183417128715</v>
       </c>
       <c r="D3" t="n">
-        <v>104.6579459240546</v>
+        <v>107.5070559762604</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -535,10 +535,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4583413892060091</v>
+        <v>-0.7259844003802982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6467405249150434</v>
+        <v>0.4679072029032999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>16.21594552480293</v>
+        <v>16.36323507898635</v>
       </c>
       <c r="D4" t="n">
-        <v>64.12677777939534</v>
+        <v>63.80094103432771</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -568,10 +568,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.433511866730184</v>
+        <v>4.396810704870321</v>
       </c>
       <c r="H4" t="n">
-        <v>9.60515358271766e-06</v>
+        <v>1.138237327660256e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>15.99776471493287</v>
+        <v>16.04598883199703</v>
       </c>
       <c r="D5" t="n">
-        <v>64.92584297378158</v>
+        <v>64.82011443704543</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -601,10 +601,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.373860259725699</v>
+        <v>4.311566455300509</v>
       </c>
       <c r="H5" t="n">
-        <v>1.262426739122109e-05</v>
+        <v>1.675335549355125e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.273725120801471</v>
+        <v>-6.255117825814145</v>
       </c>
       <c r="D6" t="n">
-        <v>119.2074657667888</v>
+        <v>119.150498179813</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -634,10 +634,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.715264443207027</v>
+        <v>-1.680753768066534</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08640043158271631</v>
+        <v>0.09291896427548889</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3968688470246407</v>
+        <v>-0.821083799666471</v>
       </c>
       <c r="D7" t="n">
-        <v>-101.7303809120134</v>
+        <v>-96.42000689961425</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -667,10 +667,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1085057137203632</v>
+        <v>-0.2206256906132998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9136018339016092</v>
+        <v>0.8253995017236808</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>

--- a/倾向得分匹配_平衡性检验.xlsx
+++ b/倾向得分匹配_平衡性检验.xlsx
@@ -490,10 +490,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.016051223453828</v>
+        <v>-5.062293621080931</v>
       </c>
       <c r="D2" t="n">
-        <v>115.6749304321044</v>
+        <v>113.1898977236058</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -502,10 +502,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.616516434106535</v>
+        <v>-1.384053665424951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1060919970647919</v>
+        <v>0.1664453888926849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.70183417128715</v>
+        <v>-1.676422489111038</v>
       </c>
       <c r="D3" t="n">
-        <v>107.5070559762604</v>
+        <v>104.6579459240546</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -535,10 +535,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7259844003802982</v>
+        <v>-0.4583413892060091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4679072029032999</v>
+        <v>0.6467405249150434</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>16.36323507898635</v>
+        <v>16.21594552480293</v>
       </c>
       <c r="D4" t="n">
-        <v>63.80094103432771</v>
+        <v>64.12677777939534</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -568,10 +568,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.396810704870321</v>
+        <v>4.433511866730184</v>
       </c>
       <c r="H4" t="n">
-        <v>1.138237327660256e-05</v>
+        <v>9.60515358271766e-06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04598883199703</v>
+        <v>15.99776471493287</v>
       </c>
       <c r="D5" t="n">
-        <v>64.82011443704543</v>
+        <v>64.92584297378158</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -601,10 +601,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.311566455300509</v>
+        <v>4.373860259725699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.675335549355125e-05</v>
+        <v>1.262426739122109e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.255117825814145</v>
+        <v>-6.273725120801471</v>
       </c>
       <c r="D6" t="n">
-        <v>119.150498179813</v>
+        <v>119.2074657667888</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -634,10 +634,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.680753768066534</v>
+        <v>-1.715264443207027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09291896427548889</v>
+        <v>0.08640043158271631</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.821083799666471</v>
+        <v>0.3968688470246407</v>
       </c>
       <c r="D7" t="n">
-        <v>-96.42000689961425</v>
+        <v>-101.7303809120134</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -667,10 +667,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2206256906132998</v>
+        <v>0.1085057137203632</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8253995017236808</v>
+        <v>0.9136018339016092</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>

--- a/倾向得分匹配_平衡性检验.xlsx
+++ b/倾向得分匹配_平衡性检验.xlsx
@@ -487,25 +487,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.38008244765244</v>
+        <v>40.513145070086</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.062293621080931</v>
+        <v>-7.068548925739601</v>
       </c>
       <c r="D2" t="n">
-        <v>113.1898977236058</v>
+        <v>117.4475442810261</v>
       </c>
       <c r="E2" t="n">
-        <v>11.26926349139651</v>
+        <v>11.85399445785516</v>
       </c>
       <c r="F2" t="n">
-        <v>5.89907124584044e-29</v>
+        <v>8.432330285233003e-32</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.384053665424951</v>
+        <v>-1.919602384290459</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664453888926849</v>
+        <v>0.05500455789510932</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -520,25 +520,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.99059577857386</v>
+        <v>38.77447001322777</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.676422489111038</v>
+        <v>-2.454891477451095</v>
       </c>
       <c r="D3" t="n">
-        <v>104.6579459240546</v>
+        <v>106.3312057562969</v>
       </c>
       <c r="E3" t="n">
-        <v>10.57449205333255</v>
+        <v>11.34926525919532</v>
       </c>
       <c r="F3" t="n">
-        <v>9.612212033869378e-26</v>
+        <v>2.462610968144726e-29</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4583413892060091</v>
+        <v>-0.6666736812317358</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6467405249150434</v>
+        <v>0.5050327647097874</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -553,25 +553,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.20348193168135</v>
+        <v>45.62266244998454</v>
       </c>
       <c r="C4" t="n">
-        <v>16.21594552480293</v>
+        <v>15.81858468899152</v>
       </c>
       <c r="D4" t="n">
-        <v>64.12677777939534</v>
+        <v>65.32735303132911</v>
       </c>
       <c r="E4" t="n">
-        <v>13.36117248875251</v>
+        <v>13.45315477266147</v>
       </c>
       <c r="F4" t="n">
-        <v>9.650858568988543e-40</v>
+        <v>3.001707526032056e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.433511866730184</v>
+        <v>4.295845328949389</v>
       </c>
       <c r="H4" t="n">
-        <v>9.60515358271766e-06</v>
+        <v>1.796559416853624e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -586,25 +586,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.61125931829044</v>
+        <v>46.05603002533842</v>
       </c>
       <c r="C5" t="n">
-        <v>15.99776471493287</v>
+        <v>15.98614792574502</v>
       </c>
       <c r="D5" t="n">
-        <v>64.92584297378158</v>
+        <v>65.2897830817159</v>
       </c>
       <c r="E5" t="n">
-        <v>13.56053058748441</v>
+        <v>13.66547951108378</v>
       </c>
       <c r="F5" t="n">
-        <v>7.429898583901447e-41</v>
+        <v>1.922827990237357e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.373860259725699</v>
+        <v>4.341350395430594</v>
       </c>
       <c r="H5" t="n">
-        <v>1.262426739122109e-05</v>
+        <v>1.463788503295196e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -619,25 +619,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.66295094300895</v>
+        <v>34.78050290287268</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.273725120801471</v>
+        <v>-9.772977114567368</v>
       </c>
       <c r="D6" t="n">
-        <v>119.2074657667888</v>
+        <v>128.0990103618087</v>
       </c>
       <c r="E6" t="n">
-        <v>9.656641617854888</v>
+        <v>10.2520695598253</v>
       </c>
       <c r="F6" t="n">
-        <v>8.645295030347428e-22</v>
+        <v>2.577417889666272e-24</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.715264443207027</v>
+        <v>-2.654042628526714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08640043158271631</v>
+        <v>0.007996100894840628</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -652,25 +652,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.93534586918614</v>
+        <v>-22.15978085441232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3968688470246407</v>
+        <v>-4.742158620982538</v>
       </c>
       <c r="D7" t="n">
-        <v>-101.7303809120134</v>
+        <v>-78.60015560560787</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.731473306095445</v>
+        <v>-6.483495828640407</v>
       </c>
       <c r="F7" t="n">
-        <v>1.957702669230089e-11</v>
+        <v>1.023746718989906e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1085057137203632</v>
+        <v>-1.287825703854651</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9136018339016092</v>
+        <v>0.1979077234816199</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
